--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Bureaublad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\Flowerpower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{815067DF-AB64-48CA-9CE7-5F1F7FBE35B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED3291D0-4A2A-4BD1-BE70-D5B53FBF74B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Naam</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Rollenmanager</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nee</t>
   </si>
 </sst>
 </file>
@@ -124,12 +130,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -159,12 +177,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -174,12 +204,6 @@
   <dxfs count="7">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -262,6 +286,12 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -277,14 +307,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BEBA775-DC90-43ED-B2E3-8EF2E8597588}" name="Tabel1" displayName="Tabel1" ref="F6:J32" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BEBA775-DC90-43ED-B2E3-8EF2E8597588}" name="Tabel1" displayName="Tabel1" ref="F6:J32" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="F6:J32" xr:uid="{7A207DFC-BC53-477D-8189-4978A06334D7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{770D2A4A-01B0-42E4-8EFC-A907BCC05C36}" name="Naam" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C2497F12-B947-405C-B4E8-6E7B0A609A99}" name="Opdracht" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{CDD47D7A-0D2F-407A-AD35-A8D668CC1058}" name="Datum" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{53E1AB0A-B5A5-4C4D-80BB-DF6CD7F58941}" name="Afgemaakt" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{178DB3B7-7C4E-4100-B94B-13B2395EECA0}" name="Takenpakket" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{770D2A4A-01B0-42E4-8EFC-A907BCC05C36}" name="Naam" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C2497F12-B947-405C-B4E8-6E7B0A609A99}" name="Opdracht" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{CDD47D7A-0D2F-407A-AD35-A8D668CC1058}" name="Datum" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{53E1AB0A-B5A5-4C4D-80BB-DF6CD7F58941}" name="Afgemaakt" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{178DB3B7-7C4E-4100-B94B-13B2395EECA0}" name="Takenpakket" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -590,7 +620,7 @@
   <dimension ref="F6:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="M20" sqref="M20:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +658,9 @@
         <v>6</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
@@ -641,7 +673,9 @@
         <v>7</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
@@ -654,7 +688,9 @@
         <v>8</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
@@ -667,7 +703,9 @@
         <v>9</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
@@ -680,7 +718,9 @@
         <v>10</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
@@ -693,7 +733,9 @@
         <v>11</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J12" s="1">
         <v>2</v>
       </c>
@@ -706,7 +748,9 @@
         <v>12</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J13" s="1">
         <v>2</v>
       </c>
@@ -719,7 +763,9 @@
         <v>13</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J14" s="1">
         <v>2</v>
       </c>
@@ -732,7 +778,9 @@
         <v>14</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J15" s="1">
         <v>2</v>
       </c>
@@ -745,7 +793,9 @@
         <v>15</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J16" s="1">
         <v>2</v>
       </c>
@@ -757,8 +807,12 @@
       <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="3">
+        <v>43385</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J17" s="1">
         <v>3</v>
       </c>
@@ -770,8 +824,12 @@
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="4">
+        <v>43385</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J18" s="1">
         <v>3</v>
       </c>
@@ -784,7 +842,9 @@
         <v>18</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J19" s="1">
         <v>3</v>
       </c>
@@ -796,8 +856,12 @@
       <c r="G20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="4">
+        <v>43385</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J20" s="1">
         <v>3</v>
       </c>
@@ -810,7 +874,9 @@
         <v>20</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J21" s="1">
         <v>3</v>
       </c>
@@ -823,7 +889,9 @@
         <v>21</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J22" s="1">
         <v>3</v>
       </c>
@@ -836,7 +904,9 @@
         <v>25</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J23" s="1">
         <v>4</v>
       </c>
@@ -849,7 +919,9 @@
         <v>26</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J24" s="1">
         <v>4</v>
       </c>
@@ -862,7 +934,9 @@
         <v>27</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J25" s="1">
         <v>4</v>
       </c>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\Flowerpower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED3291D0-4A2A-4BD1-BE70-D5B53FBF74B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{96B86C76-5F5B-41FC-A01F-A8E17B78F71C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="F6:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:N20"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,14 +652,16 @@
     </row>
     <row r="7" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="5" t="s">
-        <v>29</v>
+      <c r="H7" s="4">
+        <v>43385</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -672,7 +674,7 @@
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="5" t="s">
         <v>29</v>
       </c>
@@ -687,7 +689,7 @@
       <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="5" t="s">
         <v>29</v>
       </c>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\Flowerpower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{96B86C76-5F5B-41FC-A01F-A8E17B78F71C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13AFA72F-0D3D-4DD8-9F48-6DF8B33E535B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Naam</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Nee</t>
+  </si>
+  <si>
+    <t>Winkelwagencontroller</t>
   </si>
 </sst>
 </file>
@@ -619,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33DBF3C-06E1-473C-973B-803CA9DF1D4D}">
   <dimension ref="F6:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,10 +947,18 @@
       </c>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4">
+        <v>43385</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.25">
@@ -994,8 +1005,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Bureaublad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\Flowerpower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{815067DF-AB64-48CA-9CE7-5F1F7FBE35B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13AFA72F-0D3D-4DD8-9F48-6DF8B33E535B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Naam</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Rollenmanager</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>Winkelwagencontroller</t>
   </si>
 </sst>
 </file>
@@ -124,12 +133,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -159,12 +180,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -174,12 +207,6 @@
   <dxfs count="7">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -262,6 +289,12 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -277,14 +310,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BEBA775-DC90-43ED-B2E3-8EF2E8597588}" name="Tabel1" displayName="Tabel1" ref="F6:J32" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BEBA775-DC90-43ED-B2E3-8EF2E8597588}" name="Tabel1" displayName="Tabel1" ref="F6:J32" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="F6:J32" xr:uid="{7A207DFC-BC53-477D-8189-4978A06334D7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{770D2A4A-01B0-42E4-8EFC-A907BCC05C36}" name="Naam" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C2497F12-B947-405C-B4E8-6E7B0A609A99}" name="Opdracht" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{CDD47D7A-0D2F-407A-AD35-A8D668CC1058}" name="Datum" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{53E1AB0A-B5A5-4C4D-80BB-DF6CD7F58941}" name="Afgemaakt" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{178DB3B7-7C4E-4100-B94B-13B2395EECA0}" name="Takenpakket" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{770D2A4A-01B0-42E4-8EFC-A907BCC05C36}" name="Naam" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C2497F12-B947-405C-B4E8-6E7B0A609A99}" name="Opdracht" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{CDD47D7A-0D2F-407A-AD35-A8D668CC1058}" name="Datum" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{53E1AB0A-B5A5-4C4D-80BB-DF6CD7F58941}" name="Afgemaakt" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{178DB3B7-7C4E-4100-B94B-13B2395EECA0}" name="Takenpakket" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -589,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33DBF3C-06E1-473C-973B-803CA9DF1D4D}">
   <dimension ref="F6:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,13 +655,17 @@
     </row>
     <row r="7" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="4">
+        <v>43385</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
@@ -640,8 +677,10 @@
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
@@ -653,8 +692,10 @@
       <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
@@ -667,7 +708,9 @@
         <v>9</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
@@ -680,7 +723,9 @@
         <v>10</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
@@ -693,7 +738,9 @@
         <v>11</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J12" s="1">
         <v>2</v>
       </c>
@@ -706,7 +753,9 @@
         <v>12</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J13" s="1">
         <v>2</v>
       </c>
@@ -719,7 +768,9 @@
         <v>13</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J14" s="1">
         <v>2</v>
       </c>
@@ -732,7 +783,9 @@
         <v>14</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J15" s="1">
         <v>2</v>
       </c>
@@ -745,7 +798,9 @@
         <v>15</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J16" s="1">
         <v>2</v>
       </c>
@@ -757,8 +812,12 @@
       <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="3">
+        <v>43385</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J17" s="1">
         <v>3</v>
       </c>
@@ -770,8 +829,12 @@
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="4">
+        <v>43385</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J18" s="1">
         <v>3</v>
       </c>
@@ -784,7 +847,9 @@
         <v>18</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J19" s="1">
         <v>3</v>
       </c>
@@ -796,8 +861,12 @@
       <c r="G20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="4">
+        <v>43385</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J20" s="1">
         <v>3</v>
       </c>
@@ -810,7 +879,9 @@
         <v>20</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J21" s="1">
         <v>3</v>
       </c>
@@ -823,7 +894,9 @@
         <v>21</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J22" s="1">
         <v>3</v>
       </c>
@@ -836,7 +909,9 @@
         <v>25</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J23" s="1">
         <v>4</v>
       </c>
@@ -849,7 +924,9 @@
         <v>26</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J24" s="1">
         <v>4</v>
       </c>
@@ -862,16 +939,26 @@
         <v>27</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J25" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4">
+        <v>43385</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.25">
@@ -918,8 +1005,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\Flowerpower\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Github\Flowerpower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13AFA72F-0D3D-4DD8-9F48-6DF8B33E535B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F84A5279-B8D5-49EE-948D-02D279BF2D44}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>Naam</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Winkelwagencontroller</t>
+  </si>
+  <si>
+    <t>Winkels toevoegen</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
 </sst>
 </file>
@@ -622,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33DBF3C-06E1-473C-973B-803CA9DF1D4D}">
   <dimension ref="F6:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,10 +968,18 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="4">
+        <v>43388</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.25">

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\Flowerpower\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Flowerpower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13AFA72F-0D3D-4DD8-9F48-6DF8B33E535B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72498121-2290-4A0E-BC6B-A3BDA9E8161C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>Naam</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Winkelwagencontroller</t>
+  </si>
+  <si>
+    <t>Jop/mathijn</t>
+  </si>
+  <si>
+    <t>Jop/Mathijn</t>
   </si>
 </sst>
 </file>
@@ -622,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33DBF3C-06E1-473C-973B-803CA9DF1D4D}">
   <dimension ref="F6:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,14 +678,16 @@
     </row>
     <row r="8" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
+      <c r="H8" s="4">
+        <v>43388</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -687,14 +695,16 @@
     </row>
     <row r="9" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5" t="s">
-        <v>29</v>
+      <c r="H9" s="4">
+        <v>43388</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -888,7 +898,7 @@
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>21</v>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Github\Flowerpower\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Flowerpower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F84A5279-B8D5-49EE-948D-02D279BF2D44}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72498121-2290-4A0E-BC6B-A3BDA9E8161C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>Naam</t>
   </si>
@@ -120,10 +120,10 @@
     <t>Winkelwagencontroller</t>
   </si>
   <si>
-    <t>Winkels toevoegen</t>
-  </si>
-  <si>
-    <t>ja</t>
+    <t>Jop/mathijn</t>
+  </si>
+  <si>
+    <t>Jop/Mathijn</t>
   </si>
 </sst>
 </file>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33DBF3C-06E1-473C-973B-803CA9DF1D4D}">
   <dimension ref="F6:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,14 +678,16 @@
     </row>
     <row r="8" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
+      <c r="H8" s="4">
+        <v>43388</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -693,14 +695,16 @@
     </row>
     <row r="9" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5" t="s">
-        <v>29</v>
+      <c r="H9" s="4">
+        <v>43388</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -894,7 +898,7 @@
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>21</v>
@@ -968,18 +972,10 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="4">
-        <v>43388</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.25">

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Flowerpower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72498121-2290-4A0E-BC6B-A3BDA9E8161C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B7C6D-6628-4456-9CC0-A7EF6A02E83E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="F6:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,9 +717,11 @@
       <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="5" t="s">
-        <v>29</v>
+      <c r="H10" s="4">
+        <v>43391</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -777,9 +779,11 @@
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="5" t="s">
-        <v>29</v>
+      <c r="H14" s="4">
+        <v>43391</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J14" s="1">
         <v>2</v>
@@ -856,9 +860,11 @@
       <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="5" t="s">
-        <v>29</v>
+      <c r="H19" s="4">
+        <v>43391</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J19" s="1">
         <v>3</v>
@@ -888,9 +894,11 @@
       <c r="G21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="5" t="s">
-        <v>29</v>
+      <c r="H21" s="4">
+        <v>43391</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J21" s="1">
         <v>3</v>
@@ -903,9 +911,11 @@
       <c r="G22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="5" t="s">
-        <v>29</v>
+      <c r="H22" s="4">
+        <v>43391</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Flowerpower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B7C6D-6628-4456-9CC0-A7EF6A02E83E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72498121-2290-4A0E-BC6B-A3BDA9E8161C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="F6:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,11 +717,9 @@
       <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="4">
-        <v>43391</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>28</v>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -779,11 +777,9 @@
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="4">
-        <v>43391</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>28</v>
+      <c r="H14" s="1"/>
+      <c r="I14" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="J14" s="1">
         <v>2</v>
@@ -860,11 +856,9 @@
       <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="4">
-        <v>43391</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>28</v>
+      <c r="H19" s="1"/>
+      <c r="I19" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="J19" s="1">
         <v>3</v>
@@ -894,11 +888,9 @@
       <c r="G21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="4">
-        <v>43391</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>28</v>
+      <c r="H21" s="1"/>
+      <c r="I21" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="J21" s="1">
         <v>3</v>
@@ -911,11 +903,9 @@
       <c r="G22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="4">
-        <v>43391</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>28</v>
+      <c r="H22" s="1"/>
+      <c r="I22" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Flowerpower\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Bureaublad\flowerpwer1\Flowerpower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B7C6D-6628-4456-9CC0-A7EF6A02E83E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8F741E63-8303-4A5C-9359-73F5CEC86EB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Naam</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Jop/Mathijn</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
 </sst>
 </file>
@@ -628,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33DBF3C-06E1-473C-973B-803CA9DF1D4D}">
   <dimension ref="F6:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,9 +737,11 @@
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="5" t="s">
-        <v>29</v>
+      <c r="H11" s="4">
+        <v>43392</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -749,9 +754,11 @@
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="5" t="s">
-        <v>29</v>
+      <c r="H12" s="4">
+        <v>43390</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
@@ -764,9 +771,11 @@
       <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="5" t="s">
-        <v>29</v>
+      <c r="H13" s="4">
+        <v>43390</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -796,9 +805,11 @@
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="5" t="s">
-        <v>29</v>
+      <c r="H15" s="4">
+        <v>43392</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
@@ -928,9 +939,11 @@
       <c r="G23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="5" t="s">
-        <v>29</v>
+      <c r="H23" s="4">
+        <v>43392</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J23" s="1">
         <v>4</v>
@@ -943,7 +956,9 @@
       <c r="G24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="4">
+        <v>43390</v>
+      </c>
       <c r="I24" s="5" t="s">
         <v>29</v>
       </c>
@@ -958,9 +973,11 @@
       <c r="G25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="5" t="s">
-        <v>29</v>
+      <c r="H25" s="4">
+        <v>43390</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J25" s="1">
         <v>4</v>
